--- a/data/case1/15/V1_2.xlsx
+++ b/data/case1/15/V1_2.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999771352854</v>
+        <v>0.99999999106689519</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99345006147203097</v>
+        <v>0.99460444540042214</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97152823367041985</v>
+        <v>0.97448129466878908</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96123235491922632</v>
+        <v>0.96549876239454513</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.95133171864428423</v>
+        <v>0.95695159974188937</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.92706648348635201</v>
+        <v>0.93609948796318432</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.92540774711502727</v>
+        <v>0.9345123716502417</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.9235398321866739</v>
+        <v>0.93308811809745784</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.92438632273953902</v>
+        <v>0.9345430067893854</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.92619888667926964</v>
+        <v>0.93697339299768467</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.92658228916317542</v>
+        <v>0.93747930686102388</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.92437556881779237</v>
+        <v>0.93869973838003529</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.91308795853871727</v>
+        <v>0.94656466313588794</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.90892040918705441</v>
+        <v>0.95094756370256595</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.90632880337253274</v>
+        <v>0.9563801005110677</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.90382223735128342</v>
+        <v>0.95387396500027299</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.90011420825434096</v>
+        <v>0.95016640993388135</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.89900527068222846</v>
+        <v>0.94905752866523152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.98852395585214792</v>
+        <v>0.99143136485342021</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.96511024763344644</v>
+        <v>0.98431431973501338</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.96371170366134229</v>
+        <v>0.98291584006905897</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.9624471833142787</v>
+        <v>0.98165133429005347</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96449243551362773</v>
+        <v>0.96744582937803181</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.951470553197858</v>
+        <v>0.9544242567587442</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94501338100598276</v>
+        <v>0.94796715130385212</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.92340906206524509</v>
+        <v>0.93301677461528798</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.91856012076454463</v>
+        <v>0.9289682050254302</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.89707941228654131</v>
+        <v>0.91119060964393928</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.88180495334529829</v>
+        <v>0.89865779806652801</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.87523383603931593</v>
+        <v>0.89345030356540267</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.86757930862673516</v>
+        <v>0.88926804583699282</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.86589989947514989</v>
+        <v>0.8875887647215519</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.86537986922378318</v>
+        <v>0.88706876776429056</v>
       </c>
     </row>
   </sheetData>
